--- a/db aziende/db aziende modello NON TOCCARE.xlsx
+++ b/db aziende/db aziende modello NON TOCCARE.xlsx
@@ -15,10 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
-  <si>
-    <t>Database aziende</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>pIva</t>
   </si>
@@ -81,15 +78,6 @@
   </si>
   <si>
     <t>ok</t>
-  </si>
-  <si>
-    <t>(mancano 0)</t>
-  </si>
-  <si>
-    <t>attr composto</t>
-  </si>
-  <si>
-    <t>separare attr composto</t>
   </si>
 </sst>
 </file>
@@ -99,7 +87,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -120,13 +108,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="20"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -171,17 +152,9 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -201,10 +174,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M4" activeCellId="0" sqref="M4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="X3" activeCellId="0" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -235,177 +208,124 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="40.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="R4" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="S4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="T4" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q5" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="R5" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="S5" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="T5" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O6" s="2"/>
-      <c r="S6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="T6" s="2"/>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="T2" s="0" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="S6:T6"/>
-  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>